--- a/materialy/mestske-firmy/organy-politici-2017.xlsx
+++ b/materialy/mestske-firmy/organy-politici-2017.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="252">
   <si>
     <t xml:space="preserve">Političtí členové představenstev městských firem</t>
   </si>
@@ -247,6 +247,12 @@
     <t xml:space="preserve">Robert Höhne</t>
   </si>
   <si>
+    <t xml:space="preserve">TCP – Vinohrady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomáš Jílek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zdroj pitné vody Káraný (v likvidaci)</t>
   </si>
   <si>
@@ -451,9 +457,6 @@
     <t xml:space="preserve">Radomír Nepil</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomáš Jílek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ondřej Prokop</t>
   </si>
   <si>
@@ -587,6 +590,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vladimír Šraier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zdena Javornická</t>
   </si>
   <si>
     <t xml:space="preserve">Zdroj pitné vody Káraný</t>
@@ -931,7 +937,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1009,6 +1015,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1133,10 +1143,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1623,7 +1633,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1636,7 +1646,7 @@
       <c r="D19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="4"/>
@@ -1652,27 +1662,21 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="8"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1681,25 +1685,27 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1710,27 +1716,23 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="D22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1741,22 +1743,22 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="F23" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1770,28 +1772,29 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -1802,22 +1805,23 @@
     </row>
     <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="F25" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1831,23 +1835,21 @@
     </row>
     <row r="26" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="E26" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1862,21 +1864,23 @@
     </row>
     <row r="27" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="E27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1891,24 +1895,23 @@
     </row>
     <row r="28" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1921,22 +1924,22 @@
     </row>
     <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="G29" s="4"/>
       <c r="I29" s="4"/>
@@ -1950,709 +1953,756 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21"/>
+      <c r="A30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="3"/>
+      <c r="A31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="B34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="20" t="s">
+      <c r="F34" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="G34" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="H34" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="B35" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="C35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="F35" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B36" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="D36" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="C38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="C39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="F39" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>152</v>
-      </c>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J41" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="C47" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="D47" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="E47" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="F47" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="H46" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="G47" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="B48" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="C48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="F48" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B49" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>188</v>
-      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="H52" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="J52" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D52" s="6" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="C54" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="D54" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G52" s="28" t="s">
+      <c r="E54" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="F54" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="G54" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="H54" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="I54" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="J54" s="26" t="s">
         <v>208</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="H56" s="26" t="s">
         <v>214</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H56" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>230</v>
+        <v>219</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>233</v>
+        <v>101</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>108</v>
+        <v>225</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="E60" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="F60" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="C61" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
+      <c r="F61" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="A62" s="22"/>
     </row>
     <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="21" t="s">
-        <v>241</v>
-      </c>
+      <c r="A63" s="22"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
     </row>
     <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>242</v>
-      </c>
+      <c r="A64" s="22"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
     </row>
     <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="22" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
+    <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="30" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="15" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="31" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="11" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/materialy/mestske-firmy/organy-politici-2017.xlsx
+++ b/materialy/mestske-firmy/organy-politici-2017.xlsx
@@ -937,7 +937,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1018,10 +1018,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1034,19 +1030,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1145,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1669,9 +1657,9 @@
       <c r="B20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="8"/>
@@ -1819,7 +1807,7 @@
       <c r="E25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>95</v>
       </c>
       <c r="H25" s="4"/>
@@ -1983,7 +1971,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
+      <c r="A31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
@@ -2021,10 +2009,10 @@
       <c r="G34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="22" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2066,11 +2054,11 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -2174,13 +2162,13 @@
       <c r="G41" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="I41" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="24" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2275,7 +2263,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>57</v>
       </c>
@@ -2297,10 +2285,10 @@
       <c r="G47" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="23" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2329,7 +2317,7 @@
       <c r="A49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="25" t="s">
         <v>181</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2381,12 +2369,12 @@
       <c r="C51" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
@@ -2410,13 +2398,13 @@
       <c r="G52" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H52" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="I52" s="26" t="s">
+      <c r="I52" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="J52" s="23" t="s">
+      <c r="J52" s="22" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2430,7 +2418,7 @@
       <c r="C53" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="16" t="s">
         <v>137</v>
       </c>
       <c r="E53" s="4"/>
@@ -2456,16 +2444,16 @@
       <c r="F54" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="26" t="s">
         <v>205</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="I54" s="25" t="s">
+      <c r="I54" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="J54" s="24" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2485,16 +2473,16 @@
       <c r="E55" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="26" t="s">
         <v>205</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="I55" s="24" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2514,13 +2502,13 @@
       <c r="E56" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G56" s="21" t="s">
+      <c r="G56" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="24" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2569,10 +2557,10 @@
       <c r="G58" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H58" s="25" t="s">
+      <c r="H58" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="20" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2646,22 +2634,22 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22"/>
+      <c r="A62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
+      <c r="A63" s="21"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
     </row>
     <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
+      <c r="A64" s="21"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2686,7 +2674,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="28" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2696,7 +2684,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="26" t="s">
         <v>250</v>
       </c>
     </row>
